--- a/prueba notas.xlsx
+++ b/prueba notas.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Juan Mendoza Granadino</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Pedro Alvarado</t>
   </si>
@@ -28,6 +25,15 @@
   </si>
   <si>
     <t>Carlos</t>
+  </si>
+  <si>
+    <t>josue</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Alberto Francisco medina malcia</t>
   </si>
 </sst>
 </file>
@@ -359,11 +365,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -372,7 +376,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>5</v>
@@ -380,7 +384,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>9.5</v>
@@ -388,15 +392,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
